--- a/SiliconValley.InformationSystem/SiliconValley.InformationSystem.Web/uploadXLSXfile/Template/AttendenceTemplate.xlsx
+++ b/SiliconValley.InformationSystem/SiliconValley.InformationSystem.Web/uploadXLSXfile/Template/AttendenceTemplate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>湖南硅谷高科软件学院
 考 勤 统 计 表</t>
@@ -69,12 +69,6 @@
   </si>
   <si>
     <t>早退记录</t>
-  </si>
-  <si>
-    <t>加班时长</t>
-  </si>
-  <si>
-    <t>加班记录</t>
   </si>
   <si>
     <t>调休时长</t>
@@ -111,8 +105,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -135,6 +129,87 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -149,39 +224,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,6 +248,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -201,78 +264,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,31 +281,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,90 +455,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -414,60 +462,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,21 +486,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,6 +515,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -546,6 +540,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,32 +587,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -601,10 +595,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,133 +607,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1081,10 +1075,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AA2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -1094,7 +1088,7 @@
     <col min="7" max="7" width="11.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" spans="1:27">
+    <row r="1" ht="39" customHeight="1" spans="1:25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1122,10 +1116,8 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
     </row>
-    <row r="2" ht="29" customHeight="1" spans="1:27">
+    <row r="2" ht="29" customHeight="1" spans="1:25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1153,10 +1145,8 @@
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="48" customHeight="1" spans="1:27">
+    <row r="3" s="1" customFormat="1" ht="48" customHeight="1" spans="1:25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1231,18 +1221,12 @@
       </c>
       <c r="Y3" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA3" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:AA1"/>
-    <mergeCell ref="A2:AA2"/>
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="A2:Y2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/SiliconValley.InformationSystem/SiliconValley.InformationSystem.Web/uploadXLSXfile/Template/AttendenceTemplate.xlsx
+++ b/SiliconValley.InformationSystem/SiliconValley.InformationSystem.Web/uploadXLSXfile/Template/AttendenceTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8675"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>湖南硅谷高科软件学院
 考 勤 统 计 表</t>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>1号迟到1分钟</t>
+  </si>
+  <si>
+    <t>模板</t>
   </si>
 </sst>
 </file>
@@ -103,10 +109,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -128,15 +134,24 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,86 +164,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,22 +218,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -266,7 +227,52 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,31 +287,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,37 +437,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,109 +467,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,8 +499,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,6 +535,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -525,21 +555,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,6 +576,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -569,24 +593,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -595,10 +601,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -607,133 +613,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1075,17 +1081,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
     <col min="4" max="4" width="11.8888888888889" customWidth="1"/>
     <col min="5" max="6" width="10.5555555555556" customWidth="1"/>
     <col min="7" max="7" width="11.7777777777778" customWidth="1"/>
+    <col min="16" max="16" width="26.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:25">
@@ -1223,6 +1230,26 @@
         <v>26</v>
       </c>
     </row>
+    <row r="4" spans="1:25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>21</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:Y1"/>
